--- a/Z test.xlsx
+++ b/Z test.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9875"/>
+    <workbookView windowWidth="22943" windowHeight="9875" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Z test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>Ho</t>
   </si>
@@ -39,16 +41,37 @@
   <si>
     <t>p(z&gt;0.4)</t>
   </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>level of sig</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>lev sig</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>t critical</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,37 +82,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,39 +128,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,29 +189,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,6 +203,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -212,19 +235,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,163 +391,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,34 +429,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -450,6 +451,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,19 +482,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,58 +531,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -568,88 +591,88 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,15 +999,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="6" width="12.8888888888889"/>
+    <col min="1" max="1" width="10.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="12.8888888888889"/>
+    <col min="3" max="3" width="14.1111111111111"/>
+    <col min="5" max="8" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -1014,21 +1040,37 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1.64</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="F5">
+        <f>(115-(1.64*(30/SQRT(35))))</f>
+        <v>106.683682133471</v>
+      </c>
+      <c r="G5">
+        <f>1.64*(30/SQRT(35))</f>
+        <v>8.3163178665286</v>
+      </c>
+      <c r="H5">
+        <f>(115+(1.64*(30/SQRT(35))))</f>
+        <v>123.316317866529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <f>(110-104)/15</f>
-        <v>0.4</v>
+        <f>(110-104)/(15/SQRT(60))</f>
+        <v>3.09838667696593</v>
+      </c>
+      <c r="C7">
+        <f>(104-110)/(15/SQRT(60))</f>
+        <v>-3.09838667696593</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1036,7 +1078,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1045,7 +1087,386 @@
       </c>
       <c r="B9">
         <f>1-B8</f>
-        <v>0.34</v>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>895</v>
+      </c>
+      <c r="E17">
+        <f>225^2</f>
+        <v>50625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2.326</v>
+      </c>
+      <c r="C19">
+        <f>1-B18</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <f>(1200-895)/(225/SQRT(180))</f>
+        <v>18.1866862169983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>32.79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>32.79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>-2.326</v>
+      </c>
+      <c r="C28">
+        <f>1-B27</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <f>(30.63-32.79)/(5.6/SQRT(50))</f>
+        <v>-2.72741187029097</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="14.1111111111111"/>
+    <col min="5" max="5" width="12.8888888888889"/>
+    <col min="6" max="7" width="10.6666666666667"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5">
+      <c r="D4">
+        <f>(100-80)/(15.81/SQRT(5))</f>
+        <v>2.82867549335837</v>
+      </c>
+      <c r="E4">
+        <f>15.81/SQRT(5)</f>
+        <v>7.07044694485433</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <f>-11/E4</f>
+        <v>-1.5557715213471</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.711</v>
+      </c>
+      <c r="D15">
+        <f>(7.25-7)/(1.052/SQRT(25))</f>
+        <v>1.18821292775665</v>
+      </c>
+      <c r="F15">
+        <f>(1.711*(1.052/5))</f>
+        <v>0.3599944</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16">
+        <f>7-F15</f>
+        <v>6.6400056</v>
+      </c>
+      <c r="G16">
+        <f>7+F15</f>
+        <v>7.3599944</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.8888888888889"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <f>VAR(A1:A20)</f>
+        <v>0.00162105263157895</v>
       </c>
     </row>
   </sheetData>
